--- a/files/excel_from_boss.xlsx
+++ b/files/excel_from_boss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wayyenlin/Code/GitHubCode/pycon2019-pyexcel/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/pycon2019-pyexcel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF23011-197F-C14F-9AF0-589CB544FBE6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8180000_{AB1FE108-0213-764C-B72A-CEFFBA3E3A46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <definedName name="profit">OFFSET(chart_sample!$N$2,0,0,COUNTA(chart_sample!$N:$N)-1,1)</definedName>
     <definedName name="region">OFFSET(chart_sample!$A$2,0,0,COUNTA(chart_sample!$A:$A)-1,1)</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="79" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -379,44 +379,44 @@
     <t>Count of Item Type</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>New Order</t>
+  </si>
+  <si>
+    <t>欄標籤</t>
+  </si>
+  <si>
+    <t>列標籤</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>總計</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -424,7 +424,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -432,7 +432,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -440,35 +440,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -476,7 +476,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -484,14 +484,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -499,14 +499,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -514,7 +514,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -522,15 +522,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -885,48 +892,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,7 +951,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1214,7 +1221,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1294,7 +1301,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1377,7 +1384,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1460,7 +1467,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1549,7 +1556,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1638,7 +1645,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1723,7 +1730,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1811,7 +1818,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1890,7 +1897,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1978,7 +1985,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2066,7 +2073,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2145,7 +2152,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2183,7 +2190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2228,7 +2235,7 @@
                   <c:v>Sub-Saharan Africa</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>(blank)</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,7 +2309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1781137887"/>
@@ -2361,7 +2368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1781125855"/>
@@ -2403,7 +2410,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2440,7 +2447,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2470,7 +2477,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2532,7 +2539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2645,7 +2652,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1784879983"/>
@@ -2704,7 +2711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1785023583"/>
@@ -2752,7 +2759,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3934,7 +3941,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="WayYen Lin" refreshedDate="43725.621437152775" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="43727.386323263891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="sales_records"/>
   </cacheSource>
@@ -5635,7 +5642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PVT" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PVT" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:O13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -5935,7 +5942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6237,35 +6244,36 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -6304,13 +6312,13 @@
         <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -6345,7 +6353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -6382,7 +6390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -6417,7 +6425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>71</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>98</v>
       </c>
@@ -6510,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -6555,9 +6563,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6574,9 +6582,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2">
         <v>7</v>
@@ -6620,7 +6628,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6629,13 +6639,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6679,10 +6689,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6726,11 +6736,11 @@
         <v>951410.5</v>
       </c>
       <c r="O2" t="str">
-        <f>_xlfn.CONCAT(E2,G2)</f>
+        <f>CONCATENATE(E2,G2)</f>
         <v>H669165933</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6774,11 +6784,11 @@
         <v>248406.36</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="0">_xlfn.CONCAT(E3,G3)</f>
+        <f t="shared" ref="O3:O66" si="0">CONCATENATE(E3,G3)</f>
         <v>C963881480</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -6826,7 +6836,7 @@
         <v>L341417157</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>C514321792</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -6922,7 +6932,7 @@
         <v>L115456712</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6970,7 +6980,7 @@
         <v>C547995746</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -7018,7 +7028,7 @@
         <v>M135425221</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -7066,7 +7076,7 @@
         <v>H871543967</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -7114,7 +7124,7 @@
         <v>M770463311</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -7162,7 +7172,7 @@
         <v>H616607081</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -7210,7 +7220,7 @@
         <v>H814711606</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -7258,7 +7268,7 @@
         <v>H939825713</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -7306,7 +7316,7 @@
         <v>L187310731</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>H522840487</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -7402,7 +7412,7 @@
         <v>C832401311</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7450,7 +7460,7 @@
         <v>M972292029</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -7498,7 +7508,7 @@
         <v>M419123971</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -7546,7 +7556,7 @@
         <v>C519820964</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7594,7 +7604,7 @@
         <v>L441619336</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -7642,7 +7652,7 @@
         <v>L322067916</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -7690,7 +7700,7 @@
         <v>L819028031</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -7738,7 +7748,7 @@
         <v>H860673511</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -7786,7 +7796,7 @@
         <v>L795490682</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -7834,7 +7844,7 @@
         <v>H142278373</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -7882,7 +7892,7 @@
         <v>L740147912</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7930,7 +7940,7 @@
         <v>H898523128</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -7978,7 +7988,7 @@
         <v>M347140347</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -8026,7 +8036,7 @@
         <v>L686048400</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -8074,7 +8084,7 @@
         <v>C435608613</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -8122,7 +8132,7 @@
         <v>L886494815</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -8170,7 +8180,7 @@
         <v>M249693334</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -8218,7 +8228,7 @@
         <v>C406502997</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -8266,7 +8276,7 @@
         <v>C158535134</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -8314,7 +8324,7 @@
         <v>H177713572</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -8362,7 +8372,7 @@
         <v>M756274640</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -8410,7 +8420,7 @@
         <v>L456767165</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -8458,7 +8468,7 @@
         <v>L162052476</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -8506,7 +8516,7 @@
         <v>M825304400</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -8554,7 +8564,7 @@
         <v>L320009267</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -8602,7 +8612,7 @@
         <v>M189965903</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -8650,7 +8660,7 @@
         <v>H699285638</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -8698,7 +8708,7 @@
         <v>M382392299</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -8746,7 +8756,7 @@
         <v>H994022214</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8794,7 +8804,7 @@
         <v>H759224212</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -8842,7 +8852,7 @@
         <v>H223359620</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -8890,7 +8900,7 @@
         <v>H902102267</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -8938,7 +8948,7 @@
         <v>C331438481</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>M617667090</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -9034,7 +9044,7 @@
         <v>C787399423</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -9082,7 +9092,7 @@
         <v>C837559306</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>C385383069</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -9178,7 +9188,7 @@
         <v>L918419539</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -9226,7 +9236,7 @@
         <v>M844530045</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -9274,7 +9284,7 @@
         <v>M441888415</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -9322,7 +9332,7 @@
         <v>H508980977</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -9370,7 +9380,7 @@
         <v>C114606559</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -9418,7 +9428,7 @@
         <v>C647876489</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -9466,7 +9476,7 @@
         <v>H868214595</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -9514,7 +9524,7 @@
         <v>L955357205</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -9562,7 +9572,7 @@
         <v>H259353148</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -9610,7 +9620,7 @@
         <v>H450563752</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -9658,7 +9668,7 @@
         <v>L569662845</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -9706,7 +9716,7 @@
         <v>M177636754</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -9754,7 +9764,7 @@
         <v>H705784308</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -9802,7 +9812,7 @@
         <v>H505716836</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -9846,11 +9856,11 @@
         <v>778415.99</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O101" si="1">_xlfn.CONCAT(E67,G67)</f>
+        <f t="shared" ref="O67:O101" si="1">CONCATENATE(E67,G67)</f>
         <v>H699358165</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -9898,7 +9908,7 @@
         <v>L228944623</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -9946,7 +9956,7 @@
         <v>M807025039</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -9994,7 +10004,7 @@
         <v>H166460740</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -10042,7 +10052,7 @@
         <v>L610425555</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -10090,7 +10100,7 @@
         <v>M462405812</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -10138,7 +10148,7 @@
         <v>L816200339</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>C585920464</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10234,7 +10244,7 @@
         <v>H555990016</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -10282,7 +10292,7 @@
         <v>L231145322</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -10330,7 +10340,7 @@
         <v>C986435210</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -10378,7 +10388,7 @@
         <v>C217221009</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -10426,7 +10436,7 @@
         <v>C789176547</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -10474,7 +10484,7 @@
         <v>H688288152</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -10522,7 +10532,7 @@
         <v>H670854651</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -10570,7 +10580,7 @@
         <v>L213487374</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -10618,7 +10628,7 @@
         <v>L663110148</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -10666,7 +10676,7 @@
         <v>H286959302</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -10714,7 +10724,7 @@
         <v>L122583663</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -10762,7 +10772,7 @@
         <v>L827844560</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -10810,7 +10820,7 @@
         <v>L430915820</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -10858,7 +10868,7 @@
         <v>C180283772</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -10906,7 +10916,7 @@
         <v>M494747245</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -10954,7 +10964,7 @@
         <v>M513417565</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -11002,7 +11012,7 @@
         <v>C345718562</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -11050,7 +11060,7 @@
         <v>H621386563</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -11098,7 +11108,7 @@
         <v>H240470397</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -11146,7 +11156,7 @@
         <v>M423331391</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -11194,7 +11204,7 @@
         <v>H660643374</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -11242,7 +11252,7 @@
         <v>C963392674</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -11290,7 +11300,7 @@
         <v>M512878119</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -11338,7 +11348,7 @@
         <v>L810711038</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -11386,7 +11396,7 @@
         <v>C728815257</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11434,7 +11444,7 @@
         <v>M559427106</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -11483,6 +11493,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -11491,16 +11502,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526532-6842-B74E-B9E7-0DD4599663D0}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11544,7 +11555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -11588,7 +11599,7 @@
         <v>951410.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -11633,6 +11644,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
